--- a/data/processed_data/categorized_data/纳税类.xlsx
+++ b/data/processed_data/categorized_data/纳税类.xlsx
@@ -4432,61 +4432,61 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.8698505286183011</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.8993802406124681</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.9208895370032811</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.8833394094057602</v>
       </c>
       <c r="I3" t="s">
         <v>2</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5730951512942034</v>
       </c>
       <c r="K3" t="s">
         <v>2</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.5800218738607364</v>
       </c>
       <c r="M3" t="s">
         <v>2</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="O3" t="s">
         <v>2</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.6842872767043383</v>
       </c>
       <c r="Q3" t="s">
         <v>2</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.1177542836310609</v>
       </c>
       <c r="S3" t="s">
         <v>2</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.4969012030623405</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4495,70 +4495,70 @@
         <v>#NUM!</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2386</v>
       </c>
       <c r="C4" t="e">
         <f>#NUM!</f>
         <v>#NUM!</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2467</v>
       </c>
       <c r="E4" t="e">
         <f>#NUM!</f>
         <v>#NUM!</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2526</v>
       </c>
       <c r="G4" t="e">
         <f>#NUM!</f>
         <v>#NUM!</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2423</v>
       </c>
       <c r="I4" t="e">
         <f>#NUM!</f>
         <v>#NUM!</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1572</v>
       </c>
       <c r="K4" t="e">
         <f>#NUM!</f>
         <v>#NUM!</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1591</v>
       </c>
       <c r="M4" t="e">
         <f>#NUM!</f>
         <v>#NUM!</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2110</v>
       </c>
       <c r="O4" t="e">
         <f>#NUM!</f>
         <v>#NUM!</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1877</v>
       </c>
       <c r="Q4" t="e">
         <f>#NUM!</f>
         <v>#NUM!</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="S4" t="e">
         <f>#NUM!</f>
         <v>#NUM!</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="5" spans="1:20">
